--- a/admin/admin/assets/files/default files/enrolment_template.xlsx
+++ b/admin/admin/assets/files/default files/enrolment_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shsdesk\admin\admin\assets\files\default files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED93DA-8559-4632-AB71-75B244207A7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41043B88-A1B4-4924-8328-2CBBC2DD54C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BA5F941-1E86-4B55-BC13-98BB6F350AF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BA5F941-1E86-4B55-BC13-98BB6F350AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>

--- a/admin/admin/assets/files/default files/enrolment_template.xlsx
+++ b/admin/admin/assets/files/default files/enrolment_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shsdesk\admin\admin\assets\files\default files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41043B88-A1B4-4924-8328-2CBBC2DD54C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36190285-FA9D-4E64-A412-964B1FFE9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BA5F941-1E86-4B55-BC13-98BB6F350AF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BA5F941-1E86-4B55-BC13-98BB6F350AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,25 +418,25 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
